--- a/data/trans_orig/P39B-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P39B-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>45750</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34417</v>
+        <v>32282</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63736</v>
+        <v>60030</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1224859189706675</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09214273911404702</v>
+        <v>0.08642696028341267</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1706370542700955</v>
+        <v>0.1607164824923136</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -764,19 +764,19 @@
         <v>20865</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13498</v>
+        <v>13501</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31562</v>
+        <v>31259</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07438864293634455</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04812247453141414</v>
+        <v>0.04813249702131091</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1125254681731259</v>
+        <v>0.1114451011238155</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>61</v>
@@ -785,19 +785,19 @@
         <v>66616</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51832</v>
+        <v>51472</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84445</v>
+        <v>85180</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1018579622498154</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07925344938959474</v>
+        <v>0.07870331485206621</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1291190700940537</v>
+        <v>0.1302440057784842</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>96517</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>80266</v>
+        <v>79526</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>115220</v>
+        <v>115489</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2584011995401508</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.214893687342933</v>
+        <v>0.2129108442775033</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3084752117083478</v>
+        <v>0.3091936727948012</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -835,19 +835,19 @@
         <v>71544</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56984</v>
+        <v>56153</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87197</v>
+        <v>86190</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2550690707280752</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2031587628547207</v>
+        <v>0.2001964533474795</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.310874001338068</v>
+        <v>0.307282798240518</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>158</v>
@@ -856,19 +856,19 @@
         <v>168061</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>144551</v>
+        <v>145530</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>193350</v>
+        <v>193455</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2569721163447792</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2210244184136278</v>
+        <v>0.2225202473609322</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2956401047566076</v>
+        <v>0.2957998466810349</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>116007</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>96614</v>
+        <v>97177</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>134813</v>
+        <v>133719</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.310582095654381</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2586599875737934</v>
+        <v>0.2601686544616841</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3609290347958465</v>
+        <v>0.3580010200996088</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>91</v>
@@ -906,19 +906,19 @@
         <v>103658</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>87088</v>
+        <v>86888</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>121281</v>
+        <v>121919</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3695615135352385</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3104846322010197</v>
+        <v>0.3097712884243583</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4323881985746889</v>
+        <v>0.4346656213517539</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>201</v>
@@ -927,19 +927,19 @@
         <v>219666</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>194843</v>
+        <v>193618</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>246650</v>
+        <v>245139</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3358771846860172</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.297921949186039</v>
+        <v>0.2960496907652411</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3771375650987638</v>
+        <v>0.3748266373758272</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>47936</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35201</v>
+        <v>35492</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63140</v>
+        <v>64949</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1283375361439662</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09424333028837593</v>
+        <v>0.09502182628676707</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1690412015527906</v>
+        <v>0.1738850269968477</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -977,19 +977,19 @@
         <v>30873</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19939</v>
+        <v>20028</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43180</v>
+        <v>43768</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1100674138387569</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07108611608658215</v>
+        <v>0.07140482554023539</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1539439982327681</v>
+        <v>0.1560418345594535</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -998,19 +998,19 @@
         <v>78809</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61886</v>
+        <v>59864</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99222</v>
+        <v>98235</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1205018472386821</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0946259631736335</v>
+        <v>0.09153397921360763</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.151714931912895</v>
+        <v>0.1502055493661134</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>67305</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53012</v>
+        <v>53233</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>83819</v>
+        <v>85957</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1801932496908346</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.141927563093407</v>
+        <v>0.1425176704197463</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2244047649418947</v>
+        <v>0.230128208175447</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -1048,19 +1048,19 @@
         <v>53549</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40045</v>
+        <v>39154</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>68683</v>
+        <v>67725</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1909133589615848</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1427681580122447</v>
+        <v>0.1395931227700319</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2448686768231392</v>
+        <v>0.2414523816038993</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>108</v>
@@ -1069,19 +1069,19 @@
         <v>120854</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>100092</v>
+        <v>99916</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>146585</v>
+        <v>141836</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1847908894807062</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1530440478190558</v>
+        <v>0.1527748532632901</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2241334705642592</v>
+        <v>0.2168721073353004</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>21403</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13474</v>
+        <v>13384</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33085</v>
+        <v>33338</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0584419585978069</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03679204104046613</v>
+        <v>0.0365441538292261</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09033891815256255</v>
+        <v>0.09103001090093954</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1194,19 +1194,19 @@
         <v>18446</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11334</v>
+        <v>11595</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29169</v>
+        <v>29610</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06107870088368885</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03752886214092246</v>
+        <v>0.03839412836857128</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09658214380407781</v>
+        <v>0.09804363046979948</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -1215,19 +1215,19 @@
         <v>39850</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29024</v>
+        <v>28609</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56483</v>
+        <v>54248</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05963362060225934</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04343361193367937</v>
+        <v>0.04281192303850755</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08452454347450528</v>
+        <v>0.08117974362462209</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>84066</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>67163</v>
+        <v>66775</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>101446</v>
+        <v>101045</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2295423033998409</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1833890798285903</v>
+        <v>0.1823282031779477</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2769978203132934</v>
+        <v>0.2759030662513584</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>74</v>
@@ -1265,19 +1265,19 @@
         <v>79622</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>63811</v>
+        <v>65176</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>95890</v>
+        <v>96826</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2636414751253108</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2112875695196806</v>
+        <v>0.2158065093639802</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3175070953143186</v>
+        <v>0.3206074206311046</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>152</v>
@@ -1286,19 +1286,19 @@
         <v>163689</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>141646</v>
+        <v>142408</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>188283</v>
+        <v>187545</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2449532472551103</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2119672931059541</v>
+        <v>0.2131071962552704</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2817582060538214</v>
+        <v>0.2806533455641486</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>137250</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>116349</v>
+        <v>117078</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>157871</v>
+        <v>157808</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3747600024190187</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3176905921922779</v>
+        <v>0.3196815544017125</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4310668590388937</v>
+        <v>0.4308933334902422</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>82</v>
@@ -1336,19 +1336,19 @@
         <v>94183</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>77988</v>
+        <v>76555</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>111834</v>
+        <v>110764</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3118536041664374</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2582291546904723</v>
+        <v>0.2534860405520861</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3703001295526784</v>
+        <v>0.3667570788937434</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>203</v>
@@ -1357,19 +1357,19 @@
         <v>231433</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>205190</v>
+        <v>205524</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>260492</v>
+        <v>257029</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3463297819018549</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3070581679603456</v>
+        <v>0.307558380305654</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3898155632280054</v>
+        <v>0.3846339293904511</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>51253</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37864</v>
+        <v>37396</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66134</v>
+        <v>65885</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1399447809551268</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1033867976531069</v>
+        <v>0.1021090102706497</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1805778488661559</v>
+        <v>0.1798979082947214</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -1407,19 +1407,19 @@
         <v>34290</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24677</v>
+        <v>24063</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48159</v>
+        <v>46986</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1135403871522003</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08170977837702083</v>
+        <v>0.07967634040935072</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1594628033997058</v>
+        <v>0.1555792959856356</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -1428,19 +1428,19 @@
         <v>85543</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67528</v>
+        <v>68918</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>104813</v>
+        <v>105826</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1280114520841096</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1010523409066814</v>
+        <v>0.1031328807078438</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1568490001159024</v>
+        <v>0.1583642048435505</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>72262</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>56869</v>
+        <v>57006</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>91553</v>
+        <v>92497</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1973109546282066</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1552800886978185</v>
+        <v>0.1556541805478182</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2499859478006358</v>
+        <v>0.2525628095956429</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -1478,19 +1478,19 @@
         <v>75468</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>60134</v>
+        <v>58380</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>92465</v>
+        <v>91795</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2498858326723626</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1991124013313858</v>
+        <v>0.1933044650458428</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3061648961406864</v>
+        <v>0.3039463071292575</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>131</v>
@@ -1499,19 +1499,19 @@
         <v>147730</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>126689</v>
+        <v>125288</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>172069</v>
+        <v>173113</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2210718981566658</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1895849686780234</v>
+        <v>0.1874884631047163</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2574942523570698</v>
+        <v>0.2590562418763321</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>41746</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30531</v>
+        <v>31152</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53628</v>
+        <v>54755</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08169739860096745</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05975046491353314</v>
+        <v>0.06096591595654135</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1049514797328305</v>
+        <v>0.1071571063320309</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1624,19 +1624,19 @@
         <v>12501</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6460</v>
+        <v>6232</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20963</v>
+        <v>21910</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0535567229642113</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02767735552150589</v>
+        <v>0.02669822950152781</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.089806456305659</v>
+        <v>0.09386481790494626</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -1645,19 +1645,19 @@
         <v>54247</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40343</v>
+        <v>41717</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69672</v>
+        <v>69574</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07287337739371809</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05419585936911209</v>
+        <v>0.05604123780594648</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09359533218853915</v>
+        <v>0.09346333332620552</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>102529</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>85407</v>
+        <v>84300</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>122036</v>
+        <v>121112</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2006516502682484</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1671439730292579</v>
+        <v>0.164977485656553</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2388277760275085</v>
+        <v>0.2370182952799511</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -1695,19 +1695,19 @@
         <v>53048</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41250</v>
+        <v>41306</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>67588</v>
+        <v>66427</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2272634989251782</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1767178366368149</v>
+        <v>0.176957516906436</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.289554727222169</v>
+        <v>0.2845806375917828</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>150</v>
@@ -1716,19 +1716,19 @@
         <v>155577</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>133536</v>
+        <v>131443</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>179161</v>
+        <v>177972</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2089962799403997</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.17938730366686</v>
+        <v>0.1765752466858248</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.240678088750703</v>
+        <v>0.2390802118257477</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>160520</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>140725</v>
+        <v>138943</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>183861</v>
+        <v>182524</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3141405029914927</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2754007320671044</v>
+        <v>0.2719149223865518</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.359818831691101</v>
+        <v>0.3572028074536652</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>62</v>
@@ -1766,19 +1766,19 @@
         <v>64885</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>53202</v>
+        <v>51752</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>82010</v>
+        <v>80416</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2779760502760386</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2279245113947135</v>
+        <v>0.2217104094706569</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.351341019668335</v>
+        <v>0.3445100748173363</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>211</v>
@@ -1787,19 +1787,19 @@
         <v>225405</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>199901</v>
+        <v>200174</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>253022</v>
+        <v>251546</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3028004803911498</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2685395574617566</v>
+        <v>0.2689063244675806</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.339900315485672</v>
+        <v>0.3379178486685616</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>70406</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53602</v>
+        <v>53765</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>90198</v>
+        <v>87989</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1377865991172194</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1049010580585102</v>
+        <v>0.105219435107955</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1765185729701476</v>
+        <v>0.1721958039939077</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -1837,19 +1837,19 @@
         <v>38074</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28156</v>
+        <v>27610</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51339</v>
+        <v>49259</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1631150451889914</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1206229989658675</v>
+        <v>0.1182837951786653</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.219941526228087</v>
+        <v>0.2110324186287375</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>97</v>
@@ -1858,19 +1858,19 @@
         <v>108481</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>89838</v>
+        <v>89700</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>128454</v>
+        <v>129863</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1457287945416982</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1206846065397429</v>
+        <v>0.1204995106410996</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1725597536362822</v>
+        <v>0.1744524141455397</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>135780</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>115877</v>
+        <v>116569</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>159472</v>
+        <v>158368</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2657238490220721</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2267743815377334</v>
+        <v>0.2281273600155164</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3120894979353743</v>
+        <v>0.3099297158786487</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>60</v>
@@ -1908,19 +1908,19 @@
         <v>64912</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>51980</v>
+        <v>51489</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>79981</v>
+        <v>80423</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2780886826455805</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2226860478664235</v>
+        <v>0.2205852951405627</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3426485630915625</v>
+        <v>0.3445417001829699</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>187</v>
@@ -1929,19 +1929,19 @@
         <v>200691</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>176267</v>
+        <v>177463</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>227309</v>
+        <v>228532</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2696010677330343</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2367903866385711</v>
+        <v>0.238396966207634</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3053583431108097</v>
+        <v>0.307001179202336</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>87520</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69367</v>
+        <v>72058</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106945</v>
+        <v>107733</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09258604172358691</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07338181152266948</v>
+        <v>0.07622896227106449</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1131350197116955</v>
+        <v>0.1139687661932173</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>45</v>
@@ -2054,19 +2054,19 @@
         <v>48739</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34656</v>
+        <v>36216</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>61998</v>
+        <v>64908</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07554892187953866</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0537201137874733</v>
+        <v>0.05613737383359796</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09610176653365586</v>
+        <v>0.1006133796057551</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>129</v>
@@ -2075,19 +2075,19 @@
         <v>136259</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>115099</v>
+        <v>113703</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>162450</v>
+        <v>161494</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08567518492134335</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07237063990769674</v>
+        <v>0.07149257455109163</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1021434465618772</v>
+        <v>0.1015421893014055</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>227386</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>201589</v>
+        <v>199798</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>253861</v>
+        <v>256120</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2405474319561711</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2132572894094491</v>
+        <v>0.2113632480786627</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2685554626996717</v>
+        <v>0.2709449651179008</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>111</v>
@@ -2125,19 +2125,19 @@
         <v>119917</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>101305</v>
+        <v>101163</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>141664</v>
+        <v>141513</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1858819515552021</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1570312692302464</v>
+        <v>0.15681092116569</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2195905462610813</v>
+        <v>0.2193563950415917</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>323</v>
@@ -2146,19 +2146,19 @@
         <v>347303</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>312809</v>
+        <v>313264</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>381883</v>
+        <v>383206</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2183731847515343</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1966843800105534</v>
+        <v>0.1969706590085254</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2401158408901053</v>
+        <v>0.2409476712381856</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>302984</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>275103</v>
+        <v>272161</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>334258</v>
+        <v>332641</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3205220270637096</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2910265890601606</v>
+        <v>0.2879141139774465</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3536054951438539</v>
+        <v>0.3518948418821433</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>182</v>
@@ -2196,19 +2196,19 @@
         <v>194815</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>171472</v>
+        <v>169668</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>220225</v>
+        <v>217927</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3019795231723081</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2657952341090882</v>
+        <v>0.2629990071436282</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3413674102413816</v>
+        <v>0.3378053064155001</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>464</v>
@@ -2217,19 +2217,19 @@
         <v>497799</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>457327</v>
+        <v>461726</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>537485</v>
+        <v>540149</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3130005333886337</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2875528565723113</v>
+        <v>0.2903185456066075</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3379533279752782</v>
+        <v>0.3396283819626871</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>108088</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>89949</v>
+        <v>89443</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>130746</v>
+        <v>129155</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1143444044639326</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.095155125236442</v>
+        <v>0.0946205026976789</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1383136602210808</v>
+        <v>0.1366311471847477</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>77</v>
@@ -2267,19 +2267,19 @@
         <v>82363</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>67011</v>
+        <v>65632</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>100579</v>
+        <v>100920</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1276689490856656</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1038725287190163</v>
+        <v>0.1017353396828504</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1559049676134896</v>
+        <v>0.1564343114405254</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>178</v>
@@ -2288,19 +2288,19 @@
         <v>190451</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>165959</v>
+        <v>164816</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>221593</v>
+        <v>218218</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1197493097929322</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.104349753878084</v>
+        <v>0.1036310682887195</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1393305415429666</v>
+        <v>0.1372086690782045</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>219306</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>192480</v>
+        <v>196017</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>246371</v>
+        <v>248344</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2320000947925997</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2036218032693609</v>
+        <v>0.2073628515597455</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2606317940857181</v>
+        <v>0.2627185226507961</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>183</v>
@@ -2338,19 +2338,19 @@
         <v>199293</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>176650</v>
+        <v>175149</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>225150</v>
+        <v>222888</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3089206543072856</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2738224145568712</v>
+        <v>0.2714952584533163</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3490013878725919</v>
+        <v>0.3454944394251483</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>388</v>
@@ -2359,19 +2359,19 @@
         <v>418599</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>377978</v>
+        <v>385287</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>453471</v>
+        <v>455358</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2632017871455564</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.237660475893398</v>
+        <v>0.2422562846004246</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.285128020068927</v>
+        <v>0.2863149162090139</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>40110</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29286</v>
+        <v>28420</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>54396</v>
+        <v>54897</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1018511886623198</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07436526244209016</v>
+        <v>0.07216553762635941</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1381274299987727</v>
+        <v>0.1393994107723605</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>44</v>
@@ -2484,19 +2484,19 @@
         <v>49793</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>35904</v>
+        <v>36827</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>64967</v>
+        <v>65580</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07595443964044142</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05476763273365953</v>
+        <v>0.0561755140473531</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09910102817838801</v>
+        <v>0.100035416679945</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>81</v>
@@ -2505,19 +2505,19 @@
         <v>89903</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>72480</v>
+        <v>73274</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>111007</v>
+        <v>111814</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08567300246898206</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06906951894060827</v>
+        <v>0.06982612664746007</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1057838239539975</v>
+        <v>0.1065533602338987</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>100579</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>82950</v>
+        <v>82169</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>118827</v>
+        <v>117436</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2553991227867205</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2106341591746452</v>
+        <v>0.2086508302962122</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3017372024683233</v>
+        <v>0.2982041800294324</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>118</v>
@@ -2555,19 +2555,19 @@
         <v>129254</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>110171</v>
+        <v>108052</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>151061</v>
+        <v>150109</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1971651445858922</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1680555067856849</v>
+        <v>0.1648236368073068</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2304294998894833</v>
+        <v>0.2289766762940067</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>214</v>
@@ -2576,19 +2576,19 @@
         <v>229833</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>202726</v>
+        <v>203389</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>258569</v>
+        <v>259420</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2190192613100603</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1931873380337833</v>
+        <v>0.1938187656989945</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2464028583585836</v>
+        <v>0.2472139912037616</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>112755</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>95882</v>
+        <v>95441</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>132690</v>
+        <v>131779</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2863174332052816</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2434724405742743</v>
+        <v>0.2423517541878519</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3369387635647588</v>
+        <v>0.334625114259736</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>161</v>
@@ -2626,19 +2626,19 @@
         <v>174552</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>151374</v>
+        <v>151666</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>195654</v>
+        <v>198850</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2662616170244178</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2309072333187038</v>
+        <v>0.2313520871608097</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2984520445396708</v>
+        <v>0.3033272300556929</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>271</v>
@@ -2647,19 +2647,19 @@
         <v>287306</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>259014</v>
+        <v>260741</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>318047</v>
+        <v>317656</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2737881876169936</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2468264462566384</v>
+        <v>0.2484721923192327</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3030826768243595</v>
+        <v>0.3027101438449583</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>52440</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>38970</v>
+        <v>39558</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>65482</v>
+        <v>68605</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1331599997149435</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09895518424825916</v>
+        <v>0.1004487398631233</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1662767085134564</v>
+        <v>0.1742082333544744</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>101</v>
@@ -2697,19 +2697,19 @@
         <v>105963</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>88117</v>
+        <v>89586</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>125897</v>
+        <v>125674</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1616370519292527</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.134414222355953</v>
+        <v>0.1366542949287977</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1920442470338025</v>
+        <v>0.1917035305185887</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>150</v>
@@ -2718,19 +2718,19 @@
         <v>158403</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>136333</v>
+        <v>136655</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>180931</v>
+        <v>183658</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1509501498442618</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.129918444866913</v>
+        <v>0.130224935653998</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1724177654146413</v>
+        <v>0.1750165784648084</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>87927</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>71855</v>
+        <v>72221</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>106604</v>
+        <v>105670</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2232722556307347</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1824594734523297</v>
+        <v>0.1833910651042454</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2706981073531695</v>
+        <v>0.2683270471765</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>181</v>
@@ -2768,19 +2768,19 @@
         <v>196002</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>171996</v>
+        <v>171375</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>219985</v>
+        <v>219288</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.298981746819996</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2623627988019638</v>
+        <v>0.2614166914964996</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3355660423953486</v>
+        <v>0.3345024492689354</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>264</v>
@@ -2789,19 +2789,19 @@
         <v>283929</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>254029</v>
+        <v>254140</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>312945</v>
+        <v>314475</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2705693987597022</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2420768929523216</v>
+        <v>0.2421822031035814</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2982202874155921</v>
+        <v>0.29967852691608</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>21823</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>14760</v>
+        <v>13749</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>31675</v>
+        <v>30762</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2012241060970966</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1361008107412763</v>
+        <v>0.1267757690982873</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2920648808555145</v>
+        <v>0.283644101448185</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>45</v>
@@ -2914,19 +2914,19 @@
         <v>47988</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>35259</v>
+        <v>36161</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>63842</v>
+        <v>64185</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05244194870108277</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0385319691129744</v>
+        <v>0.03951697988389234</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06976732600303233</v>
+        <v>0.07014285416561997</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>67</v>
@@ -2935,19 +2935,19 @@
         <v>69811</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>54277</v>
+        <v>54543</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>87472</v>
+        <v>88589</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06820688835575744</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05302951029356229</v>
+        <v>0.05328925793564049</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08546184645872319</v>
+        <v>0.08655357424100713</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>33433</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>24191</v>
+        <v>24363</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>43817</v>
+        <v>42837</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3082751222383638</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2230596411310487</v>
+        <v>0.2246405783950488</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4040178536286998</v>
+        <v>0.3949840855510366</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>132</v>
@@ -2985,19 +2985,19 @@
         <v>140103</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>119271</v>
+        <v>118670</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>165050</v>
+        <v>165797</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1531069940574601</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1303410909975461</v>
+        <v>0.129684797576903</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1803686506654716</v>
+        <v>0.1811856867151403</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>165</v>
@@ -3006,19 +3006,19 @@
         <v>173536</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>150046</v>
+        <v>150148</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>200336</v>
+        <v>197707</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1695485904149432</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1465978485822423</v>
+        <v>0.1466977735896486</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1957322790277855</v>
+        <v>0.193164008597931</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>29448</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>21606</v>
+        <v>21275</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>40302</v>
+        <v>40235</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2715317437952752</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1992256976727635</v>
+        <v>0.1961706541992614</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3716129615738748</v>
+        <v>0.3709971370045516</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>269</v>
@@ -3056,19 +3056,19 @@
         <v>287666</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>259218</v>
+        <v>258096</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>315965</v>
+        <v>316341</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3143658589510351</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.28327759526178</v>
+        <v>0.2820510857588407</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3452909187082688</v>
+        <v>0.3457020475647186</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>298</v>
@@ -3077,19 +3077,19 @@
         <v>317114</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>287332</v>
+        <v>285949</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>348528</v>
+        <v>345522</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3098271612173105</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.280729476937377</v>
+        <v>0.2793784372065368</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3405186293804999</v>
+        <v>0.3375821542543764</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>8908</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3922</v>
+        <v>3871</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>17868</v>
+        <v>17525</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08213923056606895</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03616523080941753</v>
+        <v>0.0356911408494472</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1647578118735439</v>
+        <v>0.1615877023336388</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>134</v>
@@ -3127,19 +3127,19 @@
         <v>144221</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>122991</v>
+        <v>122394</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>167900</v>
+        <v>169009</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.157606675380621</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1344060903852367</v>
+        <v>0.1337534488671629</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1834841526606203</v>
+        <v>0.1846957357481389</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>142</v>
@@ -3148,19 +3148,19 @@
         <v>153129</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>131182</v>
+        <v>130670</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>177616</v>
+        <v>177983</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1496101539279365</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1281678197183654</v>
+        <v>0.127667178629765</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1735346135936776</v>
+        <v>0.1738933012416183</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>14839</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>8457</v>
+        <v>8191</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>24194</v>
+        <v>23763</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1368297973031954</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07798236382307044</v>
+        <v>0.07552722841740381</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2230818554225843</v>
+        <v>0.2191070665173048</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>276</v>
@@ -3198,19 +3198,19 @@
         <v>295090</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>264536</v>
+        <v>264657</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>322138</v>
+        <v>324804</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3224785229098011</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2890892515671624</v>
+        <v>0.2892207333995096</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3520376201054801</v>
+        <v>0.3549510179677424</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>289</v>
@@ -3219,19 +3219,19 @@
         <v>309929</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>281369</v>
+        <v>280424</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>342436</v>
+        <v>343882</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3028072060840524</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2749033534128154</v>
+        <v>0.2739800425062638</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3345666408303758</v>
+        <v>0.3359792931557179</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>258353</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>226029</v>
+        <v>228690</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>289148</v>
+        <v>291685</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.09574739081034947</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.08376804265716099</v>
+        <v>0.08475414913370986</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1071601892789236</v>
+        <v>0.1081005295565964</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>183</v>
@@ -3344,19 +3344,19 @@
         <v>198332</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>171777</v>
+        <v>171170</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>229040</v>
+        <v>225325</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06542000528838417</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05666079605564181</v>
+        <v>0.05646056369423849</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.07554897224031148</v>
+        <v>0.07432342687472798</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>427</v>
@@ -3365,19 +3365,19 @@
         <v>456686</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>419392</v>
+        <v>415696</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>501083</v>
+        <v>503252</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07970139004031168</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07319289951269123</v>
+        <v>0.07254788959633574</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08744967528465301</v>
+        <v>0.08782821174454628</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>644510</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>596988</v>
+        <v>599986</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>694956</v>
+        <v>694963</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.238859764068792</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2212477143579112</v>
+        <v>0.2223589061111119</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2575552833215859</v>
+        <v>0.2575581489784542</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>551</v>
@@ -3415,19 +3415,19 @@
         <v>593490</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>547125</v>
+        <v>545658</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>639589</v>
+        <v>638864</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.195762698459157</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1804692845176556</v>
+        <v>0.1799853957315147</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2109686661088047</v>
+        <v>0.2107294271764467</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1162</v>
@@ -3436,19 +3436,19 @@
         <v>1238000</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1169409</v>
+        <v>1168357</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1305496</v>
+        <v>1303971</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2160574177386835</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2040869077126664</v>
+        <v>0.2039032505561292</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2278369580949013</v>
+        <v>0.2275708233236148</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>858965</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>810245</v>
+        <v>808360</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>916462</v>
+        <v>912374</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3183380482074963</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3002822524554365</v>
+        <v>0.2995836051415721</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3396470060914354</v>
+        <v>0.3381318980386961</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>847</v>
@@ -3486,19 +3486,19 @@
         <v>919759</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>865085</v>
+        <v>868772</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>968584</v>
+        <v>970640</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.303382771720098</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2853484660854991</v>
+        <v>0.286564591748046</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3194875598863829</v>
+        <v>0.3201657927060716</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1648</v>
@@ -3507,19 +3507,19 @@
         <v>1778724</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1710818</v>
+        <v>1709631</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1848402</v>
+        <v>1853097</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3104253193684371</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2985743564517189</v>
+        <v>0.2983672274059657</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3225856476079837</v>
+        <v>0.3234050462502396</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>339031</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>305012</v>
+        <v>305342</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>377513</v>
+        <v>378372</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1256471572308727</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1130394627379213</v>
+        <v>0.1131617608426592</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1399089959911572</v>
+        <v>0.1402272488713698</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>407</v>
@@ -3557,19 +3557,19 @@
         <v>435784</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>395182</v>
+        <v>398461</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>475949</v>
+        <v>474765</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1437435928976566</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1303507107139844</v>
+        <v>0.1314325722002121</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1569918366392347</v>
+        <v>0.1566014835902738</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>711</v>
@@ -3578,19 +3578,19 @@
         <v>774815</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>727719</v>
+        <v>726429</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>836832</v>
+        <v>834815</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1352218507181778</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1270025581728886</v>
+        <v>0.1267774548431218</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.146045017359118</v>
+        <v>0.1456929855551349</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>597419</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>551490</v>
+        <v>555812</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>643284</v>
+        <v>644938</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2214076396824896</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2043858456626665</v>
+        <v>0.2059875774730503</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2384054114972248</v>
+        <v>0.2390184987143357</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>816</v>
@@ -3628,19 +3628,19 @@
         <v>884313</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>833917</v>
+        <v>830480</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>937823</v>
+        <v>936486</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2916909316347043</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2750678277665661</v>
+        <v>0.2739339373807967</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3093409751014814</v>
+        <v>0.3089000536306261</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1367</v>
@@ -3649,19 +3649,19 @@
         <v>1481733</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1414176</v>
+        <v>1412983</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1551458</v>
+        <v>1548905</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2585940221343899</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2468038972350759</v>
+        <v>0.2465957865663811</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.270762661458601</v>
+        <v>0.2703170704978609</v>
       </c>
     </row>
     <row r="45">
@@ -3995,19 +3995,19 @@
         <v>41241</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30288</v>
+        <v>29455</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54848</v>
+        <v>53620</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1170314336581223</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08594926860048278</v>
+        <v>0.08358656814598271</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1556449428623734</v>
+        <v>0.1521577207379678</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -4016,19 +4016,19 @@
         <v>22754</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14528</v>
+        <v>14539</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33407</v>
+        <v>34710</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07370738816945906</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04705921787584876</v>
+        <v>0.04709656072884717</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1082131886237087</v>
+        <v>0.1124355024190212</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -4037,19 +4037,19 @@
         <v>63996</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48581</v>
+        <v>49986</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80075</v>
+        <v>81131</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09680078770181168</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07348398388141442</v>
+        <v>0.07561022385187371</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1211227317484733</v>
+        <v>0.1227203104207108</v>
       </c>
     </row>
     <row r="5">
@@ -4066,19 +4066,19 @@
         <v>95664</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>78562</v>
+        <v>78219</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>113761</v>
+        <v>113324</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2714690323278897</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2229374820137784</v>
+        <v>0.2219647541913924</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3228213051324136</v>
+        <v>0.3215815094839471</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>91</v>
@@ -4087,19 +4087,19 @@
         <v>91930</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>77310</v>
+        <v>76895</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>109685</v>
+        <v>108508</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2977875966696489</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2504268838388654</v>
+        <v>0.2490839423292441</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3552988602390593</v>
+        <v>0.3514872994938153</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>179</v>
@@ -4108,19 +4108,19 @@
         <v>187595</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>164276</v>
+        <v>165348</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>212521</v>
+        <v>212382</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2837587793095246</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2484866937339518</v>
+        <v>0.2501075410603842</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3214632192533964</v>
+        <v>0.3212523365901703</v>
       </c>
     </row>
     <row r="6">
@@ -4137,19 +4137,19 @@
         <v>112779</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>96154</v>
+        <v>92805</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>132976</v>
+        <v>129541</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3200355212600299</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2728583301350907</v>
+        <v>0.2633549902640936</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3773490300395482</v>
+        <v>0.3676017404742523</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>92</v>
@@ -4158,19 +4158,19 @@
         <v>97837</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>81537</v>
+        <v>81673</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>117428</v>
+        <v>114552</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3169204949108429</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.264120469590343</v>
+        <v>0.2645622187800857</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3803807946458082</v>
+        <v>0.371066830006304</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>197</v>
@@ -4179,19 +4179,19 @@
         <v>210616</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>187197</v>
+        <v>187925</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>235191</v>
+        <v>233696</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.318580924984355</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2831577132747148</v>
+        <v>0.2842585590693745</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3557545499876751</v>
+        <v>0.3534929005748619</v>
       </c>
     </row>
     <row r="7">
@@ -4208,19 +4208,19 @@
         <v>41769</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30914</v>
+        <v>30163</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56411</v>
+        <v>54742</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1185277872412578</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08772428236331041</v>
+        <v>0.08559415422263923</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1600777818838176</v>
+        <v>0.155341457152092</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -4229,19 +4229,19 @@
         <v>47918</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34560</v>
+        <v>36717</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61836</v>
+        <v>63334</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.155218514043581</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1119504461968963</v>
+        <v>0.1189367732988827</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2003025664174092</v>
+        <v>0.2051564689168159</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -4250,19 +4250,19 @@
         <v>89686</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71934</v>
+        <v>72110</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>108698</v>
+        <v>108024</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1356609310980971</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1088088722938423</v>
+        <v>0.1090749071687634</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1644186929877765</v>
+        <v>0.1633983714580552</v>
       </c>
     </row>
     <row r="8">
@@ -4279,19 +4279,19 @@
         <v>60942</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47217</v>
+        <v>46352</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>76772</v>
+        <v>77048</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1729362255127004</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1339891867191279</v>
+        <v>0.131533434546964</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2178578632343115</v>
+        <v>0.2186421248283071</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>47</v>
@@ -4300,19 +4300,19 @@
         <v>48272</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35790</v>
+        <v>36512</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>62117</v>
+        <v>62395</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1563660062064682</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1159333401815694</v>
+        <v>0.1182721622409062</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2012129653172432</v>
+        <v>0.202115951943639</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>103</v>
@@ -4321,19 +4321,19 @@
         <v>109214</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>90701</v>
+        <v>91279</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>129877</v>
+        <v>129910</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1651985769062117</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1371965247921819</v>
+        <v>0.1380700591495988</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1964539963373608</v>
+        <v>0.1965039464806799</v>
       </c>
     </row>
     <row r="9">
@@ -4425,19 +4425,19 @@
         <v>31511</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21479</v>
+        <v>21280</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44560</v>
+        <v>43493</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1011934635715995</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06897837068147702</v>
+        <v>0.06833890554157147</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1431015003581581</v>
+        <v>0.1396746368788283</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -4446,19 +4446,19 @@
         <v>29726</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19820</v>
+        <v>19791</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41463</v>
+        <v>41483</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09434814287427362</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06290646820758465</v>
+        <v>0.0628148892902949</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1316010831380455</v>
+        <v>0.1316663036468318</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -4467,19 +4467,19 @@
         <v>61236</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47321</v>
+        <v>47647</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77478</v>
+        <v>79382</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09775073393166558</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07553778176343665</v>
+        <v>0.0760582691589561</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1236780235233179</v>
+        <v>0.1267161840456932</v>
       </c>
     </row>
     <row r="11">
@@ -4496,19 +4496,19 @@
         <v>83998</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>69170</v>
+        <v>68957</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>101376</v>
+        <v>102549</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2697505159384302</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2221326883174525</v>
+        <v>0.2214483881303266</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3255606639682944</v>
+        <v>0.3293256290727997</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>80</v>
@@ -4517,19 +4517,19 @@
         <v>81744</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>68368</v>
+        <v>67532</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>99323</v>
+        <v>99868</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2594536506461215</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2169982391336804</v>
+        <v>0.2143457622732188</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3152478110979708</v>
+        <v>0.3169790443188324</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>159</v>
@@ -4538,19 +4538,19 @@
         <v>165742</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>144134</v>
+        <v>143595</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>188694</v>
+        <v>188886</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2645718946717763</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2300805202684294</v>
+        <v>0.2292194119105744</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3012107388440027</v>
+        <v>0.3015170695938578</v>
       </c>
     </row>
     <row r="12">
@@ -4567,19 +4567,19 @@
         <v>92377</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>78265</v>
+        <v>76656</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>109334</v>
+        <v>109235</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2966586777605082</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2513414899896529</v>
+        <v>0.2461746643565687</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3511168647419862</v>
+        <v>0.3507980734574467</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>96</v>
@@ -4588,19 +4588,19 @@
         <v>104367</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>89301</v>
+        <v>87162</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>122216</v>
+        <v>122609</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3312572007812241</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2834398752419838</v>
+        <v>0.2766507431142523</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3879104229000502</v>
+        <v>0.3891572243699225</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>187</v>
@@ -4609,19 +4609,19 @@
         <v>196743</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>173279</v>
+        <v>174239</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>220154</v>
+        <v>221148</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3140593761306936</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2766041200545282</v>
+        <v>0.2781362895581129</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3514298718321495</v>
+        <v>0.3530163362718516</v>
       </c>
     </row>
     <row r="13">
@@ -4638,19 +4638,19 @@
         <v>46900</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35632</v>
+        <v>33860</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60993</v>
+        <v>60635</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1506165501955758</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.114429287542706</v>
+        <v>0.1087369481268061</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1958738806178098</v>
+        <v>0.1947243532818679</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -4659,19 +4659,19 @@
         <v>37408</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27010</v>
+        <v>26968</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49813</v>
+        <v>49123</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1187310203705007</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08572741678707722</v>
+        <v>0.08559496461572641</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1581037240468982</v>
+        <v>0.155913883958871</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -4680,19 +4680,19 @@
         <v>84308</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67790</v>
+        <v>67832</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>105291</v>
+        <v>104459</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1345803024480209</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1082124896663526</v>
+        <v>0.1082794378925913</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1680753800973133</v>
+        <v>0.166747277265419</v>
       </c>
     </row>
     <row r="14">
@@ -4709,19 +4709,19 @@
         <v>56605</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42764</v>
+        <v>43257</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70231</v>
+        <v>71786</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1817807925338863</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1373315006612464</v>
+        <v>0.1389157329644725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2255390527129916</v>
+        <v>0.2305352227920947</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>56</v>
@@ -4730,19 +4730,19 @@
         <v>61819</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48811</v>
+        <v>48123</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79172</v>
+        <v>77591</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1962099853278801</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.154923723293424</v>
+        <v>0.1527393471463523</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.251289923540398</v>
+        <v>0.2462708375053237</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>109</v>
@@ -4751,19 +4751,19 @@
         <v>118423</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>97684</v>
+        <v>98766</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>138066</v>
+        <v>139023</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1890376928178437</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1559319747474683</v>
+        <v>0.1576598660100055</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2203943140015749</v>
+        <v>0.2219208126098475</v>
       </c>
     </row>
     <row r="15">
@@ -4855,19 +4855,19 @@
         <v>38796</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27894</v>
+        <v>28235</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53490</v>
+        <v>52852</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08977463046262769</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06454667888605035</v>
+        <v>0.06533673438804899</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1237751600809366</v>
+        <v>0.1222996989637954</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -4876,19 +4876,19 @@
         <v>7625</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3671</v>
+        <v>3007</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14600</v>
+        <v>14935</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05382275812663312</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02591308407917171</v>
+        <v>0.02122383815711085</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1030562772024558</v>
+        <v>0.1054160705276451</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -4897,19 +4897,19 @@
         <v>46421</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34972</v>
+        <v>33942</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61516</v>
+        <v>60992</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08089837241685956</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06094608457185895</v>
+        <v>0.05915077581583534</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1072029354097834</v>
+        <v>0.1062899168225751</v>
       </c>
     </row>
     <row r="17">
@@ -4926,19 +4926,19 @@
         <v>108736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92737</v>
+        <v>91582</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>129729</v>
+        <v>125428</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2516160202949946</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2145929953529594</v>
+        <v>0.2119216710129606</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3001940430411573</v>
+        <v>0.2902422416190729</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -4947,19 +4947,19 @@
         <v>32265</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23098</v>
+        <v>22662</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>42997</v>
+        <v>43971</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.227745854052465</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1630357525249608</v>
+        <v>0.1599626058304381</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.303496495391556</v>
+        <v>0.3103718037012616</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>138</v>
@@ -4968,19 +4968,19 @@
         <v>141002</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>119968</v>
+        <v>121210</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>161036</v>
+        <v>161967</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2457226483675485</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2090668850380321</v>
+        <v>0.2112321304437778</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2806361712288239</v>
+        <v>0.2822596152668747</v>
       </c>
     </row>
     <row r="18">
@@ -4997,19 +4997,19 @@
         <v>138942</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>120596</v>
+        <v>120624</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>159288</v>
+        <v>161517</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3215133317890189</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2790603826792503</v>
+        <v>0.2791236214123358</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3685944859428962</v>
+        <v>0.3737524531818937</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>39</v>
@@ -5018,19 +5018,19 @@
         <v>42826</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32513</v>
+        <v>31657</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>54680</v>
+        <v>54745</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3022906963845917</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2294924875780879</v>
+        <v>0.2234507399557038</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3859560035946321</v>
+        <v>0.3864191512586099</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>173</v>
@@ -5039,19 +5039,19 @@
         <v>181769</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>160349</v>
+        <v>161057</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>206790</v>
+        <v>205584</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3167674017140896</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2794397775124341</v>
+        <v>0.2806739211012351</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3603717230649724</v>
+        <v>0.3582708750960031</v>
       </c>
     </row>
     <row r="19">
@@ -5068,19 +5068,19 @@
         <v>67856</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52386</v>
+        <v>53338</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>83789</v>
+        <v>86004</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1570188064350783</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1212226164087021</v>
+        <v>0.1234252444865898</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1938880921709415</v>
+        <v>0.1990138838329897</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -5089,19 +5089,19 @@
         <v>18190</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10631</v>
+        <v>10230</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27865</v>
+        <v>27729</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1283949211691954</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07503670998933128</v>
+        <v>0.07221162008559054</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1966826012092268</v>
+        <v>0.1957286495906256</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>80</v>
@@ -5110,19 +5110,19 @@
         <v>86046</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>69661</v>
+        <v>68139</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>105933</v>
+        <v>104846</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1499517755578557</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1213972076576416</v>
+        <v>0.1187462082958947</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1846081830826397</v>
+        <v>0.1827141476178619</v>
       </c>
     </row>
     <row r="20">
@@ -5139,19 +5139,19 @@
         <v>77821</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>63364</v>
+        <v>61877</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>95226</v>
+        <v>94523</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1800772110182806</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1466256718317838</v>
+        <v>0.1431847119229449</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2203530543631796</v>
+        <v>0.218725691963957</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -5160,19 +5160,19 @@
         <v>40766</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29990</v>
+        <v>30549</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52698</v>
+        <v>53083</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2877457702671148</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.211685219187162</v>
+        <v>0.2156272275844925</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3719690957370795</v>
+        <v>0.3746877173646455</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>111</v>
@@ -5181,19 +5181,19 @@
         <v>118586</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>99473</v>
+        <v>99175</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>139230</v>
+        <v>139674</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2066598019436466</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1733515163418722</v>
+        <v>0.1728310117662872</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2426356522831786</v>
+        <v>0.2434098775572271</v>
       </c>
     </row>
     <row r="21">
@@ -5285,19 +5285,19 @@
         <v>108388</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>90124</v>
+        <v>90451</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>129281</v>
+        <v>129985</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1168183950477524</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0971332084445326</v>
+        <v>0.09748545669819754</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1393362442595034</v>
+        <v>0.1400950775837595</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>67</v>
@@ -5306,19 +5306,19 @@
         <v>67652</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51726</v>
+        <v>54999</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>84831</v>
+        <v>85592</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09874145228969973</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07549729530587616</v>
+        <v>0.08027417310608172</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1238151962811607</v>
+        <v>0.1249258479624781</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>170</v>
@@ -5327,19 +5327,19 @@
         <v>176040</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>152858</v>
+        <v>152538</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>201063</v>
+        <v>201487</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1091398800024856</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09476773829424433</v>
+        <v>0.09456918196736822</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1246535397216301</v>
+        <v>0.1249160557775898</v>
       </c>
     </row>
     <row r="23">
@@ -5356,19 +5356,19 @@
         <v>253027</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>224386</v>
+        <v>226575</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>277463</v>
+        <v>280447</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2727065821722317</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2418384001788393</v>
+        <v>0.2441971301117889</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2990435478321198</v>
+        <v>0.3022586970791261</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>186</v>
@@ -5377,19 +5377,19 @@
         <v>190275</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>168652</v>
+        <v>165803</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>215332</v>
+        <v>213537</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.277715747878821</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2461555685789105</v>
+        <v>0.2419985162602802</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3142879058422954</v>
+        <v>0.3116684828438861</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>428</v>
@@ -5398,19 +5398,19 @@
         <v>443302</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>408987</v>
+        <v>404376</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>482780</v>
+        <v>476109</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2748343177499276</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2535601644310775</v>
+        <v>0.2507017271867018</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2993100249285764</v>
+        <v>0.295173685481567</v>
       </c>
     </row>
     <row r="24">
@@ -5427,19 +5427,19 @@
         <v>266509</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>241387</v>
+        <v>236757</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>295849</v>
+        <v>293360</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2872373815743454</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2601611951073001</v>
+        <v>0.2551716472301688</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3188589145844343</v>
+        <v>0.3161768906253647</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>191</v>
@@ -5448,19 +5448,19 @@
         <v>198400</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>174844</v>
+        <v>175000</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>225566</v>
+        <v>222941</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2895751286408416</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2551931829678941</v>
+        <v>0.2554209649536255</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.329225357126988</v>
+        <v>0.3253936010577531</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>448</v>
@@ -5469,19 +5469,19 @@
         <v>464909</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>428259</v>
+        <v>428491</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>506209</v>
+        <v>498836</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2882303827838073</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.265508301791444</v>
+        <v>0.2656518528560598</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3138350814779182</v>
+        <v>0.3092638536659149</v>
       </c>
     </row>
     <row r="25">
@@ -5498,19 +5498,19 @@
         <v>132320</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>111588</v>
+        <v>113408</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>156008</v>
+        <v>155563</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.142611691694026</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1202664200315145</v>
+        <v>0.1222283331524271</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1681419782336303</v>
+        <v>0.16766254813124</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>86</v>
@@ -5519,19 +5519,19 @@
         <v>88572</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>71378</v>
+        <v>71350</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>108047</v>
+        <v>106112</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1292757328170098</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1041803374224227</v>
+        <v>0.1041386873394155</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1576994949931074</v>
+        <v>0.1548759602275814</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>216</v>
@@ -5540,19 +5540,19 @@
         <v>220892</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>195068</v>
+        <v>194005</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>253991</v>
+        <v>251105</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1369469970467737</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1209365605396978</v>
+        <v>0.1202776568272572</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1574669083769765</v>
+        <v>0.155678055729119</v>
       </c>
     </row>
     <row r="26">
@@ -5569,19 +5569,19 @@
         <v>167591</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>145748</v>
+        <v>145614</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>193658</v>
+        <v>192221</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1806259495116445</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.157083495207651</v>
+        <v>0.15693990706249</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2087200444826086</v>
+        <v>0.2071713100186894</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>130</v>
@@ -5590,19 +5590,19 @@
         <v>140243</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>119437</v>
+        <v>118748</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>163898</v>
+        <v>162036</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2046919383736279</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1743245740397971</v>
+        <v>0.1733195090525075</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2392179559443268</v>
+        <v>0.236500503630732</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>292</v>
@@ -5611,19 +5611,19 @@
         <v>307834</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>274459</v>
+        <v>276986</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>338164</v>
+        <v>340818</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1908484224170059</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1701564998003929</v>
+        <v>0.1717230807377574</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2096520232566353</v>
+        <v>0.2112971058496607</v>
       </c>
     </row>
     <row r="27">
@@ -5715,19 +5715,19 @@
         <v>65095</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>49193</v>
+        <v>49371</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>79102</v>
+        <v>80702</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1345816882926641</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1017045278374103</v>
+        <v>0.1020734884917173</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1635407850968748</v>
+        <v>0.1668481300780668</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>57</v>
@@ -5736,19 +5736,19 @@
         <v>58049</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>43934</v>
+        <v>45119</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>74345</v>
+        <v>74956</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09192117536530632</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06956942691777099</v>
+        <v>0.07144699480718961</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1177261558094213</v>
+        <v>0.1186935990394142</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>119</v>
@@ -5757,19 +5757,19 @@
         <v>123144</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>104406</v>
+        <v>103469</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>145808</v>
+        <v>144825</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1104239715669228</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09362197982371182</v>
+        <v>0.09278156356714881</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1307468291328703</v>
+        <v>0.1298657499760142</v>
       </c>
     </row>
     <row r="29">
@@ -5786,19 +5786,19 @@
         <v>118292</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>100909</v>
+        <v>101234</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>137829</v>
+        <v>137585</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2445643392546675</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2086270378222581</v>
+        <v>0.209299190326135</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2849566076675761</v>
+        <v>0.2844527849007319</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>135</v>
@@ -5807,19 +5807,19 @@
         <v>144172</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>123520</v>
+        <v>123345</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>168952</v>
+        <v>168441</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2282975517333625</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1955949170757661</v>
+        <v>0.1953189372701755</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2675378268907579</v>
+        <v>0.2667281689100282</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>247</v>
@@ -5828,19 +5828,19 @@
         <v>262463</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>234194</v>
+        <v>236435</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>292323</v>
+        <v>291527</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2353528127630228</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2100031713514941</v>
+        <v>0.2120127196762777</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2621283600075809</v>
+        <v>0.261414069173041</v>
       </c>
     </row>
     <row r="30">
@@ -5857,19 +5857,19 @@
         <v>153880</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>133682</v>
+        <v>133054</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>175832</v>
+        <v>174316</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3181423934914336</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2763834109682175</v>
+        <v>0.2750860089003831</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3635282419087276</v>
+        <v>0.3603935967349261</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>195</v>
@@ -5878,19 +5878,19 @@
         <v>207879</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>184138</v>
+        <v>185613</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>232527</v>
+        <v>233427</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3291789191403594</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.291584982902181</v>
+        <v>0.2939204790516303</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3682095274517604</v>
+        <v>0.3696338839997253</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>346</v>
@@ -5899,19 +5899,19 @@
         <v>361759</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>330526</v>
+        <v>331103</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>394205</v>
+        <v>393977</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3243921369185022</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2963849139880244</v>
+        <v>0.2969026760293366</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3534868456453288</v>
+        <v>0.3532824376931847</v>
       </c>
     </row>
     <row r="31">
@@ -5928,19 +5928,19 @@
         <v>61072</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>47049</v>
+        <v>47578</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>76673</v>
+        <v>76693</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1262649904513823</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09727150358689481</v>
+        <v>0.09836562079953209</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.158519512814229</v>
+        <v>0.1585614951603078</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>83</v>
@@ -5949,19 +5949,19 @@
         <v>87810</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>70959</v>
+        <v>70694</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>105559</v>
+        <v>104783</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1390486078491454</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1123641576276352</v>
+        <v>0.1119439628564248</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1671540940430819</v>
+        <v>0.1659250800969429</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>143</v>
@@ -5970,19 +5970,19 @@
         <v>148883</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>126627</v>
+        <v>125096</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>174203</v>
+        <v>171204</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1335040737777193</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.113547236819448</v>
+        <v>0.1121748974647478</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1562088598120723</v>
+        <v>0.1535195204922971</v>
       </c>
     </row>
     <row r="32">
@@ -5999,19 +5999,19 @@
         <v>85344</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>68976</v>
+        <v>68878</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>102536</v>
+        <v>104775</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1764465885098525</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1426061120756143</v>
+        <v>0.1424027260698326</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2119898164301476</v>
+        <v>0.2166198888989689</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>125</v>
@@ -6020,19 +6020,19 @@
         <v>133598</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>115161</v>
+        <v>114281</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>158541</v>
+        <v>156125</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2115537459118264</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1823580274622217</v>
+        <v>0.1809647846385297</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2510515330491958</v>
+        <v>0.247225774253446</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>210</v>
@@ -6041,19 +6041,19 @@
         <v>218942</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>192467</v>
+        <v>191345</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>247390</v>
+        <v>243994</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.196327004973833</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.172586614572222</v>
+        <v>0.1715801288517024</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2218367056276944</v>
+        <v>0.2187915444172207</v>
       </c>
     </row>
     <row r="33">
@@ -6145,19 +6145,19 @@
         <v>22994</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>15452</v>
+        <v>15270</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>33200</v>
+        <v>33233</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1625269370720122</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1092158923613283</v>
+        <v>0.107927654610447</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2346634033438187</v>
+        <v>0.2348974766625389</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>46</v>
@@ -6166,19 +6166,19 @@
         <v>47314</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>33920</v>
+        <v>34751</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>60643</v>
+        <v>61951</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0515480794608939</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03695599157254529</v>
+        <v>0.03786120471629716</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06607028564761509</v>
+        <v>0.06749588529646645</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>68</v>
@@ -6187,19 +6187,19 @@
         <v>70308</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>55858</v>
+        <v>53347</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>90186</v>
+        <v>87318</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06636988664664244</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05272928852184986</v>
+        <v>0.05035878786808419</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0851344156100235</v>
+        <v>0.08242710337059175</v>
       </c>
     </row>
     <row r="35">
@@ -6216,19 +6216,19 @@
         <v>61471</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>49322</v>
+        <v>48766</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>73322</v>
+        <v>72911</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4344873530331124</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3486154463727772</v>
+        <v>0.344683290642904</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.518251064449056</v>
+        <v>0.5153423208383419</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>228</v>
@@ -6237,19 +6237,19 @@
         <v>247888</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>222618</v>
+        <v>221783</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>275454</v>
+        <v>278132</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2700734302295458</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2425415665313978</v>
+        <v>0.2416321954219915</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3001067625256709</v>
+        <v>0.303024045498381</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>287</v>
@@ -6258,19 +6258,19 @@
         <v>309359</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>278909</v>
+        <v>279377</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>339953</v>
+        <v>340314</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2920317699971635</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2632870397707633</v>
+        <v>0.2637290231951308</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3209122088063096</v>
+        <v>0.3212528780135869</v>
       </c>
     </row>
     <row r="36">
@@ -6287,19 +6287,19 @@
         <v>30958</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>21594</v>
+        <v>21563</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>42616</v>
+        <v>41961</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2188183465080857</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1526261742984545</v>
+        <v>0.1524089653942795</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3012153506727048</v>
+        <v>0.2965870139304309</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>252</v>
@@ -6308,19 +6308,19 @@
         <v>276572</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>248786</v>
+        <v>249186</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>306728</v>
+        <v>304829</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3013243487304232</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2710520267781981</v>
+        <v>0.2714878914475995</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3341797747273939</v>
+        <v>0.3321102366248994</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>281</v>
@@ -6329,19 +6329,19 @@
         <v>307530</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>275324</v>
+        <v>277626</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>336142</v>
+        <v>338205</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2903052403801503</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2599029607861886</v>
+        <v>0.262076308210042</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3173144278105023</v>
+        <v>0.3192615875293412</v>
       </c>
     </row>
     <row r="37">
@@ -6358,19 +6358,19 @@
         <v>10400</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5343</v>
+        <v>5143</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>18655</v>
+        <v>17844</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.07350859714390477</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03776268505659439</v>
+        <v>0.03635404335224008</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1318536389389797</v>
+        <v>0.1261252973378019</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>142</v>
@@ -6379,19 +6379,19 @@
         <v>162690</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>138652</v>
+        <v>138540</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>187656</v>
+        <v>187783</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1772499641666271</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1510605327654821</v>
+        <v>0.1509385881914509</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2044510510330114</v>
+        <v>0.204589076841341</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>152</v>
@@ -6400,19 +6400,19 @@
         <v>173090</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>148996</v>
+        <v>149789</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>201896</v>
+        <v>200970</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1633947617227094</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1406509867365706</v>
+        <v>0.141398920176725</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1905875188301498</v>
+        <v>0.1897135682139526</v>
       </c>
     </row>
     <row r="38">
@@ -6429,19 +6429,19 @@
         <v>15656</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>9029</v>
+        <v>8805</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>25534</v>
+        <v>24194</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1106587662428849</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06381802730376096</v>
+        <v>0.06223461725619464</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1804780889659645</v>
+        <v>0.1710090846867367</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>160</v>
@@ -6450,19 +6450,19 @@
         <v>183391</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>158279</v>
+        <v>160512</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>210761</v>
+        <v>212517</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.19980417741251</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1724443534036031</v>
+        <v>0.1748772147352458</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.229624063954574</v>
+        <v>0.231536742828224</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>174</v>
@@ -6471,19 +6471,19 @@
         <v>199047</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>172149</v>
+        <v>175380</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>227162</v>
+        <v>225003</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1878983412533343</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1625070755127606</v>
+        <v>0.1655572758296653</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2144380753428003</v>
+        <v>0.2124001706178796</v>
       </c>
     </row>
     <row r="39">
@@ -6575,19 +6575,19 @@
         <v>308025</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>274926</v>
+        <v>273205</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>342988</v>
+        <v>341943</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1162828091693081</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1037872782934487</v>
+        <v>0.1031379075723625</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1294814612862281</v>
+        <v>0.1290869726287197</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>226</v>
@@ -6596,19 +6596,19 @@
         <v>233120</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>204748</v>
+        <v>205412</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>261968</v>
+        <v>262969</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.07770780243244851</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06825040542294285</v>
+        <v>0.06847184699062674</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08732402619894761</v>
+        <v>0.08765779562414676</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>516</v>
@@ -6617,19 +6617,19 @@
         <v>541145</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>499846</v>
+        <v>494782</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>587687</v>
+        <v>585725</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09579679381346992</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08848583848367372</v>
+        <v>0.08758939446093479</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1040359653080034</v>
+        <v>0.1036886077118756</v>
       </c>
     </row>
     <row r="41">
@@ -6646,19 +6646,19 @@
         <v>721187</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>671520</v>
+        <v>671321</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>767449</v>
+        <v>765468</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2722557847684439</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2535059453562477</v>
+        <v>0.2534307753558555</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2897201020217419</v>
+        <v>0.2889722289669617</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>750</v>
@@ -6667,19 +6667,19 @@
         <v>788274</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>744700</v>
+        <v>740904</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>841621</v>
+        <v>839954</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2627624329091497</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2482372690828848</v>
+        <v>0.2469720526148991</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2805449939768515</v>
+        <v>0.2799892816517988</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1438</v>
@@ -6688,19 +6688,19 @@
         <v>1509462</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1446361</v>
+        <v>1441468</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1579110</v>
+        <v>1576601</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2672141537119794</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.256043587945199</v>
+        <v>0.2551774125841804</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2795436221870999</v>
+        <v>0.2790994946290085</v>
       </c>
     </row>
     <row r="42">
@@ -6717,19 +6717,19 @@
         <v>795445</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>752119</v>
+        <v>747493</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>840276</v>
+        <v>846577</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3002887858444359</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2839327679401156</v>
+        <v>0.2821865745323095</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3172131354255187</v>
+        <v>0.3195918313268258</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>865</v>
@@ -6738,19 +6738,19 @@
         <v>927881</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>873871</v>
+        <v>875014</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>976009</v>
+        <v>984961</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3092987579964152</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2912951498663983</v>
+        <v>0.2916762492840933</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3253417886145563</v>
+        <v>0.3283257966753123</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1632</v>
@@ -6759,19 +6759,19 @@
         <v>1723326</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1652662</v>
+        <v>1653680</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1796599</v>
+        <v>1797786</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3050737086085518</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2925643131935989</v>
+        <v>0.292744527949265</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3180449423555899</v>
+        <v>0.3182550973427261</v>
       </c>
     </row>
     <row r="43">
@@ -6788,19 +6788,19 @@
         <v>360317</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>324973</v>
+        <v>326877</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>400521</v>
+        <v>395643</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.136023503885626</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1226808191568168</v>
+        <v>0.1233994010734808</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1512010285610155</v>
+        <v>0.1493594016452134</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>407</v>
@@ -6809,19 +6809,19 @@
         <v>442588</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>400519</v>
+        <v>401843</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>482403</v>
+        <v>482659</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1475316267933313</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1335085693614592</v>
+        <v>0.1339497333932974</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1608035477718301</v>
+        <v>0.1608890815251727</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>751</v>
@@ -6830,19 +6830,19 @@
         <v>802905</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>748681</v>
+        <v>748581</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>856594</v>
+        <v>855770</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.142135118699133</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1325361051697677</v>
+        <v>0.1325184401665587</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1516394911798614</v>
+        <v>0.1514935616366611</v>
       </c>
     </row>
     <row r="44">
@@ -6859,19 +6859,19 @@
         <v>463958</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>424374</v>
+        <v>427300</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>503268</v>
+        <v>506787</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1751491163321862</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1602057054581896</v>
+        <v>0.161310278941393</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1899887778761169</v>
+        <v>0.1913175712425865</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>555</v>
@@ -6880,19 +6880,19 @@
         <v>608088</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>560174</v>
+        <v>565340</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>653661</v>
+        <v>652673</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2026993798686553</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1867277560996214</v>
+        <v>0.1884497863938346</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2178907084485432</v>
+        <v>0.2175611845674413</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>999</v>
@@ -6901,19 +6901,19 @@
         <v>1072047</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1014691</v>
+        <v>1010157</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1135754</v>
+        <v>1132275</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1897802251668659</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1796268326351911</v>
+        <v>0.1788240907487496</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2010580882556778</v>
+        <v>0.2004421852010954</v>
       </c>
     </row>
     <row r="45">
@@ -7247,19 +7247,19 @@
         <v>30796</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20292</v>
+        <v>20685</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44295</v>
+        <v>45433</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06578572535664262</v>
+        <v>0.06578572535664261</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04334748031980926</v>
+        <v>0.04418653439897108</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09462257899988141</v>
+        <v>0.09705279393305132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -7268,19 +7268,19 @@
         <v>20134</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13124</v>
+        <v>13039</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30883</v>
+        <v>29547</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04612670007046951</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03006735402019448</v>
+        <v>0.02987264292758943</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07075095142681555</v>
+        <v>0.06769016531943531</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -7289,19 +7289,19 @@
         <v>50930</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38669</v>
+        <v>38497</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69115</v>
+        <v>67192</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05629985595288944</v>
+        <v>0.05629985595288943</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04274561707937118</v>
+        <v>0.04255526700819433</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07640192566835914</v>
+        <v>0.07427603335615604</v>
       </c>
     </row>
     <row r="5">
@@ -7318,19 +7318,19 @@
         <v>112691</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>94775</v>
+        <v>93367</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>134323</v>
+        <v>132162</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.240728070144701</v>
+        <v>0.2407280701447009</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.202454844253859</v>
+        <v>0.1994478385376957</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2869374420200151</v>
+        <v>0.2823217103915356</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>143</v>
@@ -7339,19 +7339,19 @@
         <v>102114</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>86220</v>
+        <v>86750</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>119526</v>
+        <v>118237</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2339374080473404</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1975262326780598</v>
+        <v>0.1987383847570481</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2738269583058913</v>
+        <v>0.2708736641134535</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>252</v>
@@ -7360,19 +7360,19 @@
         <v>214805</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>190787</v>
+        <v>192624</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>240809</v>
+        <v>240171</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2374514410706296</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2109013346962826</v>
+        <v>0.2129320674183927</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2661971576492081</v>
+        <v>0.2654918768826696</v>
       </c>
     </row>
     <row r="6">
@@ -7389,19 +7389,19 @@
         <v>160671</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>140964</v>
+        <v>139928</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>183266</v>
+        <v>183834</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3432212062299974</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3011238701329542</v>
+        <v>0.2989107640959149</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3914873476872688</v>
+        <v>0.3927004444770205</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>183</v>
@@ -7410,19 +7410,19 @@
         <v>121197</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>106576</v>
+        <v>105784</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>139485</v>
+        <v>137690</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2776559415213075</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2441600055064598</v>
+        <v>0.2423445823847729</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3195528921106545</v>
+        <v>0.3154404603741232</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>351</v>
@@ -7431,19 +7431,19 @@
         <v>281868</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>256342</v>
+        <v>257748</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>308704</v>
+        <v>308678</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3115846663000866</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.283367485828249</v>
+        <v>0.2849220685255548</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3412501838979734</v>
+        <v>0.3412210383086975</v>
       </c>
     </row>
     <row r="7">
@@ -7460,19 +7460,19 @@
         <v>76324</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62196</v>
+        <v>62381</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93938</v>
+        <v>96315</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1630411617663615</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1328622058599161</v>
+        <v>0.1332571458410133</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2006682443277636</v>
+        <v>0.2057449664586004</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>126</v>
@@ -7481,19 +7481,19 @@
         <v>84858</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71951</v>
+        <v>71433</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>99198</v>
+        <v>99056</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1944050169291779</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1648364005601007</v>
+        <v>0.1636496404608472</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.227257460295906</v>
+        <v>0.2269324905498103</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>212</v>
@@ -7502,19 +7502,19 @@
         <v>161182</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>141010</v>
+        <v>137861</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>183171</v>
+        <v>183844</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.178174843611817</v>
+        <v>0.1781748436118169</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1558758141458531</v>
+        <v>0.1523953365417842</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2024817183716779</v>
+        <v>0.2032263703714646</v>
       </c>
     </row>
     <row r="8">
@@ -7531,19 +7531,19 @@
         <v>87645</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>71773</v>
+        <v>73616</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>106317</v>
+        <v>106871</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1872238365022973</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1533193361271689</v>
+        <v>0.1572555143783262</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2271114721214966</v>
+        <v>0.2282938640381874</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>151</v>
@@ -7552,19 +7552,19 @@
         <v>108198</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>91269</v>
+        <v>92051</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>124623</v>
+        <v>125936</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2478749334317047</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2090913992379769</v>
+        <v>0.2108849606798348</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2855037408656945</v>
+        <v>0.2885118619848638</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>249</v>
@@ -7573,19 +7573,19 @@
         <v>195842</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>173810</v>
+        <v>173414</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>220705</v>
+        <v>218652</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2164891930645774</v>
+        <v>0.2164891930645773</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1921340287913952</v>
+        <v>0.1916963241578289</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2439736951547036</v>
+        <v>0.2417034581026654</v>
       </c>
     </row>
     <row r="9">
@@ -7677,19 +7677,19 @@
         <v>25497</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15737</v>
+        <v>15842</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38288</v>
+        <v>37388</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06208762173324344</v>
+        <v>0.06208762173324345</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03832058812507576</v>
+        <v>0.03857532301099691</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09323399647115016</v>
+        <v>0.09104235140453561</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -7698,19 +7698,19 @@
         <v>24285</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16946</v>
+        <v>17426</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34297</v>
+        <v>33282</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06573784040610052</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04587198374311097</v>
+        <v>0.04717263197568849</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09284025781727584</v>
+        <v>0.09009242899231987</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -7719,19 +7719,19 @@
         <v>49782</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37962</v>
+        <v>38756</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63898</v>
+        <v>67179</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06381621839506522</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04866434584123053</v>
+        <v>0.04968179323575633</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08191128998847778</v>
+        <v>0.08611788093957916</v>
       </c>
     </row>
     <row r="11">
@@ -7748,19 +7748,19 @@
         <v>106535</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>90822</v>
+        <v>88673</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>126288</v>
+        <v>124800</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2594193569548061</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2211574208291868</v>
+        <v>0.215923179533268</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.307517212135372</v>
+        <v>0.3038946938382701</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>126</v>
@@ -7769,19 +7769,19 @@
         <v>93847</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>80023</v>
+        <v>79665</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>110136</v>
+        <v>107898</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2540413265655947</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2166181592745885</v>
+        <v>0.215650616888666</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2981348818479336</v>
+        <v>0.2920765818644439</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>228</v>
@@ -7790,19 +7790,19 @@
         <v>200383</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>176441</v>
+        <v>179101</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>221852</v>
+        <v>224766</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2568725381992354</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2261812079928275</v>
+        <v>0.2295914541873937</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2843945059791207</v>
+        <v>0.2881295528522304</v>
       </c>
     </row>
     <row r="12">
@@ -7819,19 +7819,19 @@
         <v>113768</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>96195</v>
+        <v>96122</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>132854</v>
+        <v>132675</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2770299815825183</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2342391593246691</v>
+        <v>0.2340609369842669</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3235072099800512</v>
+        <v>0.3230706658049101</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>168</v>
@@ -7840,19 +7840,19 @@
         <v>116142</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>101008</v>
+        <v>101366</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>132229</v>
+        <v>130977</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3143918003468358</v>
+        <v>0.3143918003468359</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2734258832749646</v>
+        <v>0.2743948619560962</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3579381741397668</v>
+        <v>0.3545484356398236</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>288</v>
@@ -7861,19 +7861,19 @@
         <v>229910</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>206911</v>
+        <v>203567</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>256064</v>
+        <v>253307</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2947230353373059</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2652406803900905</v>
+        <v>0.2609547333417167</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3282502131456645</v>
+        <v>0.3247158586606254</v>
       </c>
     </row>
     <row r="13">
@@ -7890,19 +7890,19 @@
         <v>80230</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65025</v>
+        <v>64683</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>99597</v>
+        <v>98232</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1953648797565129</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1583392262458004</v>
+        <v>0.1575064157389164</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2425235096023229</v>
+        <v>0.2392005349338527</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>98</v>
@@ -7911,19 +7911,19 @@
         <v>64326</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52914</v>
+        <v>53057</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77370</v>
+        <v>77228</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1741271442032042</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1432368684614034</v>
+        <v>0.1436241136405648</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2094374826581592</v>
+        <v>0.2090518946365574</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>184</v>
@@ -7932,19 +7932,19 @@
         <v>144556</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124381</v>
+        <v>123256</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>166191</v>
+        <v>166329</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1853075429029461</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1594444021486053</v>
+        <v>0.1580034618521239</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.213041281071833</v>
+        <v>0.2132183463502435</v>
       </c>
     </row>
     <row r="14">
@@ -7961,19 +7961,19 @@
         <v>84638</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70342</v>
+        <v>69528</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>100013</v>
+        <v>101466</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2060981599729192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1712863418679668</v>
+        <v>0.169304960127675</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2435357783661155</v>
+        <v>0.2470754108863201</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>105</v>
@@ -7982,19 +7982,19 @@
         <v>70818</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58972</v>
+        <v>59028</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>83165</v>
+        <v>83882</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1917018884782647</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1596340591077882</v>
+        <v>0.1597874418152107</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2251239731149887</v>
+        <v>0.2270649702148306</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>198</v>
@@ -8003,19 +8003,19 @@
         <v>155456</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>135032</v>
+        <v>135961</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>179137</v>
+        <v>175591</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1992806651654473</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1730990816300606</v>
+        <v>0.1742890968364983</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2296366186029378</v>
+        <v>0.2250910021570768</v>
       </c>
     </row>
     <row r="15">
@@ -8107,19 +8107,19 @@
         <v>28300</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19989</v>
+        <v>20058</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40215</v>
+        <v>39909</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07010285537600837</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04951575703333283</v>
+        <v>0.04968511553560138</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09961876063051436</v>
+        <v>0.09886037066222364</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -8128,19 +8128,19 @@
         <v>12923</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7985</v>
+        <v>8033</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19376</v>
+        <v>19720</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07600515526154876</v>
+        <v>0.07600515526154879</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04696385347663713</v>
+        <v>0.0472448525377356</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1139634214614697</v>
+        <v>0.1159832083339854</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>48</v>
@@ -8149,19 +8149,19 @@
         <v>41223</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31087</v>
+        <v>30191</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54816</v>
+        <v>52830</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07185201491198158</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05418529495854851</v>
+        <v>0.05262368891853796</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09554587863501109</v>
+        <v>0.09208399085367228</v>
       </c>
     </row>
     <row r="17">
@@ -8178,19 +8178,19 @@
         <v>125197</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>108619</v>
+        <v>106659</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>147679</v>
+        <v>146864</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3101303174483599</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2690627320859499</v>
+        <v>0.2642071874621225</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3658202640042211</v>
+        <v>0.3638005749175457</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>58</v>
@@ -8199,19 +8199,19 @@
         <v>39071</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30155</v>
+        <v>30754</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>48297</v>
+        <v>49088</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2297985551693191</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1773581977885302</v>
+        <v>0.180882051712966</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2840635745687725</v>
+        <v>0.2887174877140719</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>177</v>
@@ -8220,19 +8220,19 @@
         <v>164268</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>143960</v>
+        <v>144589</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>186096</v>
+        <v>187394</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2863238232415592</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2509265188214516</v>
+        <v>0.2520226973296709</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3243694775256134</v>
+        <v>0.3266324449027866</v>
       </c>
     </row>
     <row r="18">
@@ -8249,19 +8249,19 @@
         <v>106101</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>89562</v>
+        <v>90715</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>124754</v>
+        <v>125057</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2628266196172845</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2218561964043683</v>
+        <v>0.2247122047388579</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3090313976284594</v>
+        <v>0.3097825783451337</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>76</v>
@@ -8270,19 +8270,19 @@
         <v>46497</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>37755</v>
+        <v>36979</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56559</v>
+        <v>56435</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2734763842679483</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2220577859015594</v>
+        <v>0.2174965816164866</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3326558688046098</v>
+        <v>0.3319284051819166</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>193</v>
@@ -8291,19 +8291,19 @@
         <v>152598</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>132818</v>
+        <v>130177</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>171130</v>
+        <v>171432</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2659827007646038</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2315050055131122</v>
+        <v>0.2269012546244838</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2982843989427715</v>
+        <v>0.2988097266394928</v>
       </c>
     </row>
     <row r="19">
@@ -8320,19 +8320,19 @@
         <v>77469</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62630</v>
+        <v>61700</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>93074</v>
+        <v>93243</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1918999892624589</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1551434168284886</v>
+        <v>0.1528398674410822</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2305559392162394</v>
+        <v>0.2309739705257501</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -8341,19 +8341,19 @@
         <v>26695</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20149</v>
+        <v>19940</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34817</v>
+        <v>33939</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1570110466393705</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1185066715539444</v>
+        <v>0.1172799975530028</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2047820118451525</v>
+        <v>0.1996160525442795</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>138</v>
@@ -8362,19 +8362,19 @@
         <v>104164</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>88857</v>
+        <v>86046</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>121118</v>
+        <v>120685</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1815605744796382</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1548794938009765</v>
+        <v>0.1499797336933165</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2111124633129624</v>
+        <v>0.2103570205634533</v>
       </c>
     </row>
     <row r="20">
@@ -8391,19 +8391,19 @@
         <v>66626</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>52584</v>
+        <v>53424</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>83223</v>
+        <v>82975</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1650402182958884</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1302578410639262</v>
+        <v>0.1323389613528091</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2061540862397887</v>
+        <v>0.2055406710592915</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>66</v>
@@ -8412,19 +8412,19 @@
         <v>44836</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35380</v>
+        <v>35209</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55829</v>
+        <v>56746</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2637088586618133</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2080896854267322</v>
+        <v>0.2070847958594011</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.328364404796413</v>
+        <v>0.3337542865812975</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>144</v>
@@ -8433,19 +8433,19 @@
         <v>111462</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>94190</v>
+        <v>95199</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>131548</v>
+        <v>131364</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1942808866022173</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1641751690528191</v>
+        <v>0.1659337942732572</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2292907598949981</v>
+        <v>0.228970431846575</v>
       </c>
     </row>
     <row r="21">
@@ -8537,19 +8537,19 @@
         <v>77561</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60810</v>
+        <v>60897</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>96502</v>
+        <v>99197</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08445175177981569</v>
+        <v>0.08445175177981568</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06621194134234604</v>
+        <v>0.06630713204013364</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1050749152253769</v>
+        <v>0.108009352247625</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>81</v>
@@ -8558,19 +8558,19 @@
         <v>63870</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51157</v>
+        <v>49999</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78796</v>
+        <v>79533</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08376306507808742</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06708957041605165</v>
+        <v>0.06557185916899455</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1033376684757453</v>
+        <v>0.1043033605465444</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>150</v>
@@ -8579,19 +8579,19 @@
         <v>141432</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>119833</v>
+        <v>120691</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>167182</v>
+        <v>168963</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08413934448000543</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07128986949858235</v>
+        <v>0.0718004719055341</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09945841006286747</v>
+        <v>0.1005178804105233</v>
       </c>
     </row>
     <row r="23">
@@ -8608,19 +8608,19 @@
         <v>224608</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>198782</v>
+        <v>196117</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>253938</v>
+        <v>252383</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2445620832811098</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2164419016147516</v>
+        <v>0.2135406107588843</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2764981214169128</v>
+        <v>0.2748049894555128</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>260</v>
@@ -8629,19 +8629,19 @@
         <v>184562</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>163574</v>
+        <v>165769</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>204564</v>
+        <v>205627</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2420445783832239</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.214519711637591</v>
+        <v>0.2173990468281512</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2682767793860865</v>
+        <v>0.2696699596295535</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>474</v>
@@ -8650,19 +8650,19 @@
         <v>409170</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>378596</v>
+        <v>376635</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>445358</v>
+        <v>446318</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2434200735611109</v>
+        <v>0.243420073561111</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2252316801761543</v>
+        <v>0.2240649787034032</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2649486915474156</v>
+        <v>0.265519928461258</v>
       </c>
     </row>
     <row r="24">
@@ -8679,19 +8679,19 @@
         <v>276979</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>250456</v>
+        <v>249595</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>307333</v>
+        <v>303982</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3015864516224648</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2727061771507774</v>
+        <v>0.2717696516683035</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3346366660005993</v>
+        <v>0.3309876350549637</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>356</v>
@@ -8700,19 +8700,19 @@
         <v>246583</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>225574</v>
+        <v>224535</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>267674</v>
+        <v>269477</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3233829349978938</v>
+        <v>0.3233829349978937</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2958301282552343</v>
+        <v>0.2944679179896028</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3510424573032745</v>
+        <v>0.3534066705131805</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>655</v>
@@ -8721,19 +8721,19 @@
         <v>523563</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>489516</v>
+        <v>487848</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>560852</v>
+        <v>560063</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3114739381959515</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2912188050866057</v>
+        <v>0.2902267603390891</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.33365766239383</v>
+        <v>0.333188436184103</v>
       </c>
     </row>
     <row r="25">
@@ -8750,19 +8750,19 @@
         <v>163013</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>140327</v>
+        <v>139683</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>188670</v>
+        <v>184890</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1774950569689384</v>
+        <v>0.1774950569689383</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1527935435299839</v>
+        <v>0.1520920578762491</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2054315364107224</v>
+        <v>0.2013156594110341</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>173</v>
@@ -8771,19 +8771,19 @@
         <v>110846</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>93151</v>
+        <v>95161</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>127053</v>
+        <v>128186</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1453693171508929</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1221628401231089</v>
+        <v>0.1247993511577723</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1666245875371654</v>
+        <v>0.1681105208273918</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>358</v>
@@ -8792,19 +8792,19 @@
         <v>273859</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>245608</v>
+        <v>246184</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>303305</v>
+        <v>300563</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.162921934523309</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1461151899151781</v>
+        <v>0.1464576814442126</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1804401291345019</v>
+        <v>0.1788083672273048</v>
       </c>
     </row>
     <row r="26">
@@ -8821,19 +8821,19 @@
         <v>176247</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>153983</v>
+        <v>154542</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>201697</v>
+        <v>201688</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1919046563476715</v>
+        <v>0.1919046563476714</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1676633852605064</v>
+        <v>0.1682716721241814</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2196156417396969</v>
+        <v>0.2196057305669017</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>248</v>
@@ -8842,19 +8842,19 @@
         <v>156651</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>138847</v>
+        <v>139564</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>176796</v>
+        <v>176276</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.205440104389902</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1820921382614062</v>
+        <v>0.1830322909917709</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2318595629142524</v>
+        <v>0.2311773625771693</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>446</v>
@@ -8863,19 +8863,19 @@
         <v>332897</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>306563</v>
+        <v>301908</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>368000</v>
+        <v>362575</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1980447092396232</v>
+        <v>0.1980447092396233</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1823779981182607</v>
+        <v>0.1796086396496468</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2189274464557688</v>
+        <v>0.2157000746446734</v>
       </c>
     </row>
     <row r="27">
@@ -8967,19 +8967,19 @@
         <v>50287</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>36974</v>
+        <v>37337</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>66073</v>
+        <v>66143</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.116413009987189</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08559485604798341</v>
+        <v>0.08643463962551484</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1529575839858934</v>
+        <v>0.1531194591366376</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>73</v>
@@ -8988,19 +8988,19 @@
         <v>52789</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>41624</v>
+        <v>40733</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>67142</v>
+        <v>66391</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.07187198797310725</v>
+        <v>0.07187198797310723</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05667050960790283</v>
+        <v>0.05545705536143668</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09141249091783651</v>
+        <v>0.09039048700483661</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>119</v>
@@ -9009,19 +9009,19 @@
         <v>103076</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>84384</v>
+        <v>86228</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>123367</v>
+        <v>124124</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0883666952457608</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07234207123544582</v>
+        <v>0.07392314423545411</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1057616055462438</v>
+        <v>0.1064108655635328</v>
       </c>
     </row>
     <row r="29">
@@ -9038,19 +9038,19 @@
         <v>117901</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>100242</v>
+        <v>98302</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>141088</v>
+        <v>138385</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2729368951986766</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2320566777462269</v>
+        <v>0.227567246926813</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3266154180153324</v>
+        <v>0.3203581720586948</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>229</v>
@@ -9059,19 +9059,19 @@
         <v>158608</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>138851</v>
+        <v>141619</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>177765</v>
+        <v>179247</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2159431607393379</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1890444541575882</v>
+        <v>0.1928130702643171</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.242025681437269</v>
+        <v>0.2440433237318886</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>338</v>
@@ -9080,19 +9080,19 @@
         <v>276509</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>248482</v>
+        <v>247905</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>305180</v>
+        <v>304088</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2370494336484985</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2130217943324559</v>
+        <v>0.2125275711525588</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2616291500077731</v>
+        <v>0.2606929467620656</v>
       </c>
     </row>
     <row r="30">
@@ -9109,19 +9109,19 @@
         <v>122561</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>102489</v>
+        <v>104081</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>143323</v>
+        <v>143686</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2837240154647591</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2372583708776352</v>
+        <v>0.2409446130185292</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.331788365024465</v>
+        <v>0.3326293659543434</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>346</v>
@@ -9130,19 +9130,19 @@
         <v>215218</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>194490</v>
+        <v>196930</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>235290</v>
+        <v>236011</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2930173377531761</v>
+        <v>0.293017337753176</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2647953412227095</v>
+        <v>0.2681176166282698</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3203441487861431</v>
+        <v>0.3213260117253098</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>472</v>
@@ -9151,19 +9151,19 @@
         <v>337779</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>312520</v>
+        <v>311278</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>368428</v>
+        <v>369021</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2895757770568498</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2679213333566536</v>
+        <v>0.2668571704033665</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.315850748740642</v>
+        <v>0.3163597917941489</v>
       </c>
     </row>
     <row r="31">
@@ -9180,19 +9180,19 @@
         <v>62450</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>48989</v>
+        <v>49675</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>79324</v>
+        <v>81053</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1445695050272487</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1134074196765859</v>
+        <v>0.114995994934021</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1836337754632319</v>
+        <v>0.187635750232475</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>223</v>
@@ -9201,19 +9201,19 @@
         <v>126751</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>110739</v>
+        <v>111365</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>144402</v>
+        <v>142850</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1725694566835889</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.150769383718387</v>
+        <v>0.1516227664244206</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1966020107243554</v>
+        <v>0.1944886648639465</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>296</v>
@@ -9222,19 +9222,19 @@
         <v>189200</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>166821</v>
+        <v>169065</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>210875</v>
+        <v>212118</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.162200341083283</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1430147897970944</v>
+        <v>0.1449385555491605</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.18078185226777</v>
+        <v>0.1818473417804957</v>
       </c>
     </row>
     <row r="32">
@@ -9251,19 +9251,19 @@
         <v>78773</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>64261</v>
+        <v>64362</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>95627</v>
+        <v>97939</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1823565743221267</v>
+        <v>0.1823565743221266</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.148762393450809</v>
+        <v>0.148995097448809</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2213746080474014</v>
+        <v>0.2267253468101491</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>297</v>
@@ -9272,19 +9272,19 @@
         <v>181124</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>161341</v>
+        <v>163173</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>200970</v>
+        <v>200564</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.24659805685079</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2196636716451358</v>
+        <v>0.2221582630870934</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2736179886466862</v>
+        <v>0.2730659927188646</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>387</v>
@@ -9293,19 +9293,19 @@
         <v>259897</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>235062</v>
+        <v>235592</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>282999</v>
+        <v>284362</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2228077529656079</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2015174276098819</v>
+        <v>0.201971865202365</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2426135724895635</v>
+        <v>0.2437816845328021</v>
       </c>
     </row>
     <row r="33">
@@ -9397,19 +9397,19 @@
         <v>21769</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>12142</v>
+        <v>10673</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>35636</v>
+        <v>33842</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2559103760024116</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1427413420135179</v>
+        <v>0.1254676565968581</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4189232199484403</v>
+        <v>0.3978355333432283</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>59</v>
@@ -9418,19 +9418,19 @@
         <v>48841</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>36046</v>
+        <v>37162</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>61852</v>
+        <v>62674</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.07334540107150472</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05413029374447934</v>
+        <v>0.05580635784721528</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09288415238485356</v>
+        <v>0.0941180823779649</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>71</v>
@@ -9439,19 +9439,19 @@
         <v>70610</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>55157</v>
+        <v>54658</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>91265</v>
+        <v>91176</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.09402518174685365</v>
+        <v>0.09402518174685366</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07344771390288718</v>
+        <v>0.07278241763498364</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1215288706634578</v>
+        <v>0.1214098568271303</v>
       </c>
     </row>
     <row r="35">
@@ -9468,19 +9468,19 @@
         <v>27184</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>15864</v>
+        <v>16125</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>41118</v>
+        <v>40102</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3195641649137807</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1864975256064</v>
+        <v>0.1895651656231836</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4833666356074192</v>
+        <v>0.4714309200015793</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>245</v>
@@ -9489,19 +9489,19 @@
         <v>174388</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>152732</v>
+        <v>154714</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>196428</v>
+        <v>197029</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2618802522521871</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2293597494626342</v>
+        <v>0.2323360091009533</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2949784148021509</v>
+        <v>0.2958797964469652</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>259</v>
@@ -9510,19 +9510,19 @@
         <v>201572</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>179333</v>
+        <v>179364</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>227767</v>
+        <v>227773</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2684143131408608</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2388001826395964</v>
+        <v>0.2388422422982427</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.303294859807249</v>
+        <v>0.3033037380772197</v>
       </c>
     </row>
     <row r="36">
@@ -9539,19 +9539,19 @@
         <v>25969</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14981</v>
+        <v>14582</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>40980</v>
+        <v>39773</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3052841380864273</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1761170885127216</v>
+        <v>0.1714172091900645</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4817530120134322</v>
+        <v>0.4675630164956008</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>295</v>
@@ -9560,19 +9560,19 @@
         <v>189809</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>169193</v>
+        <v>167586</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>212746</v>
+        <v>210625</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.285037842617144</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2540787746816588</v>
+        <v>0.2516650162892487</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3194827046824317</v>
+        <v>0.3162975633409749</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>310</v>
@@ -9581,19 +9581,19 @@
         <v>215778</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>194249</v>
+        <v>192584</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>242399</v>
+        <v>242093</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2873312121418929</v>
+        <v>0.287331212141893</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2586630077513982</v>
+        <v>0.2564461777699153</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3227793788364947</v>
+        <v>0.3223715413239706</v>
       </c>
     </row>
     <row r="37">
@@ -9610,19 +9610,19 @@
         <v>5578</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1180</v>
+        <v>1245</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>20754</v>
+        <v>18775</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.06557801885823873</v>
+        <v>0.06557801885823875</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01387498666942751</v>
+        <v>0.01463547669225722</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2439753112459871</v>
+        <v>0.2207175226345123</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>185</v>
@@ -9631,19 +9631,19 @@
         <v>112779</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>97138</v>
+        <v>96975</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>131744</v>
+        <v>129850</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1693607817204921</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1458732768195096</v>
+        <v>0.145628280294184</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1978409868281493</v>
+        <v>0.194996274750408</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>189</v>
@@ -9652,19 +9652,19 @@
         <v>118357</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>101708</v>
+        <v>102304</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>136813</v>
+        <v>136270</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.1576049409592212</v>
+        <v>0.1576049409592213</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1354349210415231</v>
+        <v>0.1362278558760555</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1821803899607855</v>
+        <v>0.1814571292255565</v>
       </c>
     </row>
     <row r="38">
@@ -9681,19 +9681,19 @@
         <v>4565</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1147</v>
+        <v>1409</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>11403</v>
+        <v>12832</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05366330213914165</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01348349188215287</v>
+        <v>0.01656749263740832</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1340539853449286</v>
+        <v>0.1508434904792193</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>230</v>
@@ -9702,19 +9702,19 @@
         <v>140091</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>122211</v>
+        <v>123219</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>157409</v>
+        <v>158988</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.210375722338672</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1835246678044036</v>
+        <v>0.1850387718051354</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2363822901572353</v>
+        <v>0.2387540097085832</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>234</v>
@@ -9723,19 +9723,19 @@
         <v>144656</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>127482</v>
+        <v>125521</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>165030</v>
+        <v>164136</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.1926243520111713</v>
+        <v>0.1926243520111714</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1697561213507604</v>
+        <v>0.1671448102560524</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2197551935708258</v>
+        <v>0.2185638229752974</v>
       </c>
     </row>
     <row r="39">
@@ -9827,19 +9827,19 @@
         <v>234211</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>204281</v>
+        <v>203556</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>268102</v>
+        <v>268318</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.08617241678512848</v>
+        <v>0.08617241678512845</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0751602429624486</v>
+        <v>0.07489352131006805</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.09864176006630183</v>
+        <v>0.0987213335716047</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>291</v>
@@ -9848,19 +9848,19 @@
         <v>222842</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>196247</v>
+        <v>198640</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>248361</v>
+        <v>251995</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.07099493592384477</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06252179460140461</v>
+        <v>0.06328442706183704</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.07912476449230127</v>
+        <v>0.08028265296934897</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>495</v>
@@ -9869,19 +9869,19 @@
         <v>457053</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>419463</v>
+        <v>416028</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>500365</v>
+        <v>498884</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07803828807096232</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07162009099107441</v>
+        <v>0.07103346821150319</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08543335186657579</v>
+        <v>0.08518050188438119</v>
       </c>
     </row>
     <row r="41">
@@ -9898,19 +9898,19 @@
         <v>714117</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>664994</v>
+        <v>668771</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>761954</v>
+        <v>767699</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2627425259615605</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2446689920522615</v>
+        <v>0.2460587108429012</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2803429085742901</v>
+        <v>0.2824567132986431</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1061</v>
@@ -9919,19 +9919,19 @@
         <v>752590</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>711739</v>
+        <v>711004</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>795971</v>
+        <v>794852</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2397661790696332</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2267515530032281</v>
+        <v>0.2265173387074053</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2535868252840951</v>
+        <v>0.2532301908619912</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1728</v>
@@ -9940,19 +9940,19 @@
         <v>1466707</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1399476</v>
+        <v>1400666</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1529206</v>
+        <v>1530495</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.250428719427499</v>
+        <v>0.2504287194274989</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2389496004602709</v>
+        <v>0.2391527347125047</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2610999471368793</v>
+        <v>0.2613200833037414</v>
       </c>
     </row>
     <row r="42">
@@ -9969,19 +9969,19 @@
         <v>806049</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>753765</v>
+        <v>756896</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>856451</v>
+        <v>857825</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.296566896836872</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2773300197991082</v>
+        <v>0.2784822382441123</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3151111026348332</v>
+        <v>0.3156166472557353</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1424</v>
@@ -9990,19 +9990,19 @@
         <v>935446</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>894206</v>
+        <v>893269</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>984895</v>
+        <v>980332</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2980220282671637</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2848834132172273</v>
+        <v>0.2845848227337689</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3137756759511153</v>
+        <v>0.3123219833010114</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2269</v>
@@ -10011,19 +10011,19 @@
         <v>1741496</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1680968</v>
+        <v>1672005</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1807629</v>
+        <v>1813272</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2973467513106282</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2870121856174433</v>
+        <v>0.2854817504709893</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3086384913755357</v>
+        <v>0.3096020210783885</v>
       </c>
     </row>
     <row r="43">
@@ -10040,19 +10040,19 @@
         <v>465064</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>424729</v>
+        <v>424787</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>503880</v>
+        <v>508483</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.171109451719304</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1562690034176631</v>
+        <v>0.1562905093557687</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1853908990513544</v>
+        <v>0.1870843650887409</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>853</v>
@@ -10061,19 +10061,19 @@
         <v>526254</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>490918</v>
+        <v>492833</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>559274</v>
+        <v>563100</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1676582014369872</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1564004900183944</v>
+        <v>0.1570107279317968</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1781779131129384</v>
+        <v>0.1793970582409714</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1377</v>
@@ -10082,19 +10082,19 @@
         <v>991318</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>938380</v>
+        <v>939692</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1045140</v>
+        <v>1043380</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1692598091944514</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1602210117192663</v>
+        <v>0.1604450179548825</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1784495078631304</v>
+        <v>0.1781490409535437</v>
       </c>
     </row>
     <row r="44">
@@ -10111,19 +10111,19 @@
         <v>498493</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>456986</v>
+        <v>458372</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>538918</v>
+        <v>541419</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1834087086971349</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1681373321260244</v>
+        <v>0.1686472275949013</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1982824056132334</v>
+        <v>0.1992024111485704</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1097</v>
@@ -10132,19 +10132,19 @@
         <v>701717</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>660522</v>
+        <v>661328</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>739954</v>
+        <v>742304</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2235586553023711</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2104342703439829</v>
+        <v>0.2106910828202221</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2357404229054286</v>
+        <v>0.2364891624305878</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1658</v>
@@ -10153,19 +10153,19 @@
         <v>1200210</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1144652</v>
+        <v>1148247</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1257910</v>
+        <v>1259862</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.2049264319964589</v>
+        <v>0.204926431996459</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1954403797689101</v>
+        <v>0.196054235330021</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2147782284644102</v>
+        <v>0.2151116207308292</v>
       </c>
     </row>
     <row r="45">
